--- a/figures_germany.xlsx
+++ b/figures_germany.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\capital-cost-recovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F3A61A-DF94-4B06-BB8A-03498B0F9066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8EF61-7B44-45B5-9D3C-D9B4DCA682BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="4" xr2:uid="{7B9E4868-486B-4016-967C-82E98302D099}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{7B9E4868-486B-4016-967C-82E98302D099}"/>
   </bookViews>
   <sheets>
     <sheet name="npv_ranks_2023" sheetId="1" r:id="rId1"/>
-    <sheet name="npv_ranks_2024" sheetId="2" r:id="rId2"/>
-    <sheet name="npv_ranks_2025" sheetId="3" r:id="rId3"/>
-    <sheet name="npv_ranks_2028" sheetId="4" r:id="rId4"/>
-    <sheet name="oecd gap" sheetId="5" r:id="rId5"/>
+    <sheet name="G7_2024" sheetId="6" r:id="rId2"/>
+    <sheet name="npv_ranks_2024" sheetId="2" r:id="rId3"/>
+    <sheet name="npv_ranks_2025" sheetId="3" r:id="rId4"/>
+    <sheet name="npv_ranks_2028" sheetId="4" r:id="rId5"/>
+    <sheet name="oecd gap" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
   <si>
     <t>Country</t>
   </si>
@@ -197,6 +198,45 @@
   <si>
     <t>OECD Simple Average</t>
   </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Frankreich</t>
+  </si>
+  <si>
+    <t>Vereinigtes Königreich</t>
+  </si>
+  <si>
+    <t>Vereinigte Staaten</t>
+  </si>
+  <si>
+    <t>OECD Durchschnitt</t>
+  </si>
+  <si>
+    <t>Deutschland 2023</t>
+  </si>
+  <si>
+    <t>Deutschland (WI)</t>
+  </si>
+  <si>
+    <t>Deutschland_WSG</t>
+  </si>
+  <si>
+    <t>Gewichteter Durchschnitt</t>
+  </si>
+  <si>
+    <t>Industriegebäude</t>
+  </si>
+  <si>
+    <t>Machinen &amp; Ausrüstungen</t>
+  </si>
+  <si>
+    <t>Immaterielle Vermögenswerte</t>
+  </si>
 </sst>
 </file>
 
@@ -245,17 +285,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3138,6 +3228,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1EF0883-4916-42A2-A101-D5B471763D71}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:E11" xr:uid="{F1EF0883-4916-42A2-A101-D5B471763D71}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+    <sortCondition descending="1" ref="C1:C11"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E83B5C7C-694C-4738-AF42-B3C72FE17CFF}" name="Country" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F24BEED3-54BB-4CDF-BCAF-55990A8DBEAA}" name="Gewichteter Durchschnitt" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FBEE705F-6802-43A8-A822-4A5C0AF3CDF3}" name="Industriegebäude" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{358A10C6-0E03-4D42-B246-EF03275D1295}" name="Machinen &amp; Ausrüstungen" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{A7DBE976-0B4A-4ED5-A44E-308248783727}" name="Immaterielle Vermögenswerte" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3458,7 +3565,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="A30" sqref="A30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4606,11 +4713,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0FCF03-802F-44FE-BD8C-962D953B6517}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="25.53125" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1"/>
+    <col min="5" max="5" width="20.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.625</v>
+      </c>
+      <c r="D2">
+        <v>0.997</v>
+      </c>
+      <c r="E2">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.87</v>
+      </c>
+      <c r="E3">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.88</v>
+      </c>
+      <c r="E4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0.68215789473684196</v>
+      </c>
+      <c r="C5">
+        <v>0.47176315789473672</v>
+      </c>
+      <c r="D5">
+        <v>0.85157894736842088</v>
+      </c>
+      <c r="E5">
+        <v>0.76418421052631569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.35</v>
+      </c>
+      <c r="D10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADEB7CB-21D8-467A-9A05-5FA09C3814AD}">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5751,18 +6069,34 @@
         <f>AVERAGE(C2:C39)</f>
         <v>0.68215789473684196</v>
       </c>
+      <c r="E41">
+        <f t="shared" ref="D41:I41" si="0">AVERAGE(E2:E39)</f>
+        <v>0.47176315789473672</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0.85157894736842088</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0.76418421052631569</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE225370-9A9E-4209-BF24-5C43D06EE4BD}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6909,7 +7243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68CB5EF-9A6F-421A-B254-1A487B437B87}">
   <dimension ref="A1:I41"/>
   <sheetViews>
@@ -8061,12 +8395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EC3BFF-3BE1-42BE-BB90-57AF2D058F70}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
